--- a/Data/EC/NIT-9011158618.xlsx
+++ b/Data/EC/NIT-9011158618.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF05211-3C50-4919-98D6-B158DA96E29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A13DC45-6549-446E-B8E3-B039C921BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A836D5A7-860F-44C5-8E3D-9E1335C74B5A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36172A46-185D-48B5-A39E-F10AAF30A710}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="119">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,108 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73430516</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO CAREY OCHOA</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>1052992675</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO ESPAÑA LUNA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>3875660</t>
+  </si>
+  <si>
+    <t>OSMAR ANTONIO PABUENA OLAYA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>9021702</t>
+  </si>
+  <si>
+    <t>JUAN PABLO SEVERICHE MEZA</t>
+  </si>
+  <si>
+    <t>1052987983</t>
+  </si>
+  <si>
+    <t>DEIMER MANUEL SALCEDO GARCIA</t>
+  </si>
+  <si>
+    <t>1052068353</t>
+  </si>
+  <si>
+    <t>DANIEL DAVID BLANCO MERCADO</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>9023397</t>
+  </si>
+  <si>
+    <t>EDGAR AMARIS PERALTA</t>
+  </si>
+  <si>
     <t>1005412180</t>
   </si>
   <si>
@@ -74,142 +176,172 @@
     <t>1911</t>
   </si>
   <si>
+    <t>1052994903</t>
+  </si>
+  <si>
+    <t>DERIAN ARROYO DIAZ</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>3878141</t>
+  </si>
+  <si>
+    <t>UBALDO JOSE NUÑEZ VIVERO</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1100550357</t>
+  </si>
+  <si>
+    <t>CARMEN MARIA GALVAN DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>1052069096</t>
+  </si>
+  <si>
+    <t>ADALBERTO RAFAEL YERENA ARRIETA</t>
+  </si>
+  <si>
+    <t>1052982557</t>
+  </si>
+  <si>
+    <t>JHON JAVIER PEREZ MARTINEZ</t>
+  </si>
+  <si>
     <t>1052974553</t>
   </si>
   <si>
     <t>ERIC DE JESUS MARTINEZ RAMIREZ</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>1052076233</t>
   </si>
   <si>
     <t>HAROLD ENRIQUE BLANCO BARRIOS</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>73435831</t>
   </si>
   <si>
     <t>YOSMAN JOSE VALDES RODELO</t>
   </si>
   <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
     <t>78034548</t>
   </si>
   <si>
     <t>VICTOR MANUEL SUAREZ LOZANO</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2203</t>
   </si>
   <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>3878141</t>
-  </si>
-  <si>
-    <t>UBALDO JOSE NUÑEZ VIVERO</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>3875660</t>
-  </si>
-  <si>
-    <t>OSMAR ANTONIO PABUENA OLAYA</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
+    <t>20355119</t>
+  </si>
+  <si>
+    <t>LUIS JAVIER LOZANO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1002443035</t>
+  </si>
+  <si>
+    <t>ESTEBAN JUNIOR RIVERA ARROYO</t>
   </si>
   <si>
     <t>19640791</t>
@@ -218,73 +350,16 @@
     <t>JOSE DIONICIO RANGEL RANGEL</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1052069096</t>
-  </si>
-  <si>
-    <t>ADALBERTO RAFAEL YERENA ARRIETA</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1052992675</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO ESPAÑA LUNA</t>
-  </si>
-  <si>
     <t>1002488021</t>
   </si>
   <si>
     <t>DEISY PAOLA GONZALEZ PRASCA</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1052987983</t>
-  </si>
-  <si>
-    <t>DEIMER MANUEL SALCEDO GARCIA</t>
-  </si>
-  <si>
     <t>1007183378</t>
   </si>
   <si>
     <t>FARID MANUEL VERGARA CASTRO</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -328,7 +403,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,7 +773,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B8B4A5-3148-5E05-B93F-A0C339355092}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4111CC-952E-CC06-42FB-57C77BEDFE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,32 +1124,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD52EAC-4EAF-4F9D-B218-775B82AA8263}">
-  <dimension ref="B2:J93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B4925-2F88-4BEB-A281-86B06E8DE9FF}">
+  <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1083,7 +1158,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1094,7 +1169,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1105,7 +1180,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1116,10 +1191,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1132,8 +1207,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1148,15 +1223,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3811921</v>
+        <v>4755422</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1164,27 +1239,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1204,16 +1279,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,168 +1302,168 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>939249</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>939249</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>37200</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1397,21 +1472,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>37200</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
         <v>1300000</v>
@@ -1420,21 +1495,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F25" s="18">
-        <v>37200</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
         <v>1300000</v>
@@ -1443,99 +1518,99 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>80000</v>
+        <v>43333</v>
       </c>
       <c r="G29" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1546,352 +1621,352 @@
         <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>80000</v>
+        <v>32480</v>
       </c>
       <c r="G30" s="18">
-        <v>2000000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
-        <v>80000</v>
+        <v>43654</v>
       </c>
       <c r="G31" s="18">
-        <v>2000000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="18">
-        <v>80000</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F39" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G39" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>2000000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="E42" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F42" s="18">
-        <v>32480</v>
+        <v>35112</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1903,18 +1978,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1926,18 +2001,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1949,18 +2024,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1972,18 +2047,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1995,18 +2070,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -2018,18 +2093,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -2041,41 +2116,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>46800</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2087,41 +2162,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F54" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2133,87 +2208,87 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
-        <v>5200</v>
+        <v>46400</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F57" s="18">
-        <v>43333</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2225,64 +2300,64 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
-        <v>23633</v>
+        <v>60992</v>
       </c>
       <c r="G60" s="18">
-        <v>1363476</v>
+        <v>1524797</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>2033</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1524797</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2294,41 +2369,41 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2340,21 +2415,21 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>5200</v>
       </c>
       <c r="G65" s="18">
         <v>1300000</v>
@@ -2363,145 +2438,145 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G68" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="18">
-        <v>54539</v>
+        <v>35112</v>
       </c>
       <c r="G69" s="18">
-        <v>1363476</v>
+        <v>877803</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F71" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2512,56 +2587,56 @@
         <v>73</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F72" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G72" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F73" s="18">
-        <v>54539</v>
+        <v>37200</v>
       </c>
       <c r="G73" s="18">
-        <v>1363476</v>
+        <v>1300000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F74" s="18">
-        <v>52000</v>
+        <v>37200</v>
       </c>
       <c r="G74" s="18">
         <v>1300000</v>
@@ -2570,21 +2645,21 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F75" s="18">
-        <v>52000</v>
+        <v>37200</v>
       </c>
       <c r="G75" s="18">
         <v>1300000</v>
@@ -2593,310 +2668,862 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F76" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G76" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F77" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G77" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F78" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G78" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F79" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G79" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F80" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G80" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F81" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G81" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F82" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G82" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F83" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F84" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G84" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F85" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G85" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F86" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G86" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" s="22" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="24">
+      <c r="E87" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G87" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G88" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G89" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G90" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="18">
         <v>52000</v>
       </c>
-      <c r="G87" s="24">
+      <c r="G96" s="18">
         <v>1300000</v>
       </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="H92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="H93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G97" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G98" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="18">
+        <v>46800</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="18">
+        <v>54539</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1363476</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="18">
+        <v>54539</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1363476</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="18">
+        <v>23633</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1363476</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G111" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="H116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="H117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H116:J116"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011158618.xlsx
+++ b/Data/EC/NIT-9011158618.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A13DC45-6549-446E-B8E3-B039C921BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC23040B-01CF-4207-B710-03688BB3442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36172A46-185D-48B5-A39E-F10AAF30A710}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DA59D246-C4F1-4C6A-8606-EEC8E9001319}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,163 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73430516</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO CAREY OCHOA</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
+    <t>1005412180</t>
+  </si>
+  <si>
+    <t>AGUSTIN RAFAEL ROMERO SALAZAR</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1052974553</t>
+  </si>
+  <si>
+    <t>ERIC DE JESUS MARTINEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1052076233</t>
+  </si>
+  <si>
+    <t>HAROLD ENRIQUE BLANCO BARRIOS</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>73435831</t>
+  </si>
+  <si>
+    <t>YOSMAN JOSE VALDES RODELO</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>78034548</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL SUAREZ LOZANO</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>3875660</t>
+  </si>
+  <si>
+    <t>OSMAR ANTONIO PABUENA OLAYA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>3878141</t>
+  </si>
+  <si>
+    <t>UBALDO JOSE NUÑEZ VIVERO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>19640791</t>
+  </si>
+  <si>
+    <t>JOSE DIONICIO RANGEL RANGEL</t>
+  </si>
+  <si>
+    <t>2407</t>
   </si>
   <si>
     <t>1052992675</t>
@@ -83,283 +230,73 @@
     <t>LUIS EDUARDO ESPAÑA LUNA</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1052069096</t>
+  </si>
+  <si>
+    <t>ADALBERTO RAFAEL YERENA ARRIETA</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1002488021</t>
+  </si>
+  <si>
+    <t>DEISY PAOLA GONZALEZ PRASCA</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1052987983</t>
+  </si>
+  <si>
+    <t>DEIMER MANUEL SALCEDO GARCIA</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1007183378</t>
+  </si>
+  <si>
+    <t>FARID MANUEL VERGARA CASTRO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>3875660</t>
-  </si>
-  <si>
-    <t>OSMAR ANTONIO PABUENA OLAYA</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>9021702</t>
   </si>
   <si>
     <t>JUAN PABLO SEVERICHE MEZA</t>
   </si>
   <si>
-    <t>1052987983</t>
-  </si>
-  <si>
-    <t>DEIMER MANUEL SALCEDO GARCIA</t>
-  </si>
-  <si>
-    <t>1052068353</t>
-  </si>
-  <si>
-    <t>DANIEL DAVID BLANCO MERCADO</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>9023397</t>
-  </si>
-  <si>
-    <t>EDGAR AMARIS PERALTA</t>
-  </si>
-  <si>
-    <t>1005412180</t>
-  </si>
-  <si>
-    <t>AGUSTIN RAFAEL ROMERO SALAZAR</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1052994903</t>
-  </si>
-  <si>
-    <t>DERIAN ARROYO DIAZ</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>3878141</t>
-  </si>
-  <si>
-    <t>UBALDO JOSE NUÑEZ VIVERO</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1100550357</t>
-  </si>
-  <si>
-    <t>CARMEN MARIA GALVAN DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>1052069096</t>
-  </si>
-  <si>
-    <t>ADALBERTO RAFAEL YERENA ARRIETA</t>
-  </si>
-  <si>
-    <t>1052982557</t>
-  </si>
-  <si>
-    <t>JHON JAVIER PEREZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1052974553</t>
-  </si>
-  <si>
-    <t>ERIC DE JESUS MARTINEZ RAMIREZ</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1052076233</t>
-  </si>
-  <si>
-    <t>HAROLD ENRIQUE BLANCO BARRIOS</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>73435831</t>
-  </si>
-  <si>
-    <t>YOSMAN JOSE VALDES RODELO</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>78034548</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL SUAREZ LOZANO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>20355119</t>
-  </si>
-  <si>
-    <t>LUIS JAVIER LOZANO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1002443035</t>
-  </si>
-  <si>
-    <t>ESTEBAN JUNIOR RIVERA ARROYO</t>
-  </si>
-  <si>
-    <t>19640791</t>
-  </si>
-  <si>
-    <t>JOSE DIONICIO RANGEL RANGEL</t>
-  </si>
-  <si>
-    <t>1002488021</t>
-  </si>
-  <si>
-    <t>DEISY PAOLA GONZALEZ PRASCA</t>
-  </si>
-  <si>
-    <t>1007183378</t>
-  </si>
-  <si>
-    <t>FARID MANUEL VERGARA CASTRO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -403,7 +340,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +395,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -471,9 +410,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -673,23 +610,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,10 +654,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4111CC-952E-CC06-42FB-57C77BEDFE00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9E45AA-89E7-28F2-FC93-41FD0EC593DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,32 +1061,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B4925-2F88-4BEB-A281-86B06E8DE9FF}">
-  <dimension ref="B2:J117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96833C8B-1618-445F-8B7F-CD509DDEE3E7}">
+  <dimension ref="B2:J99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1095,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1169,7 +1106,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1180,7 +1117,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1191,10 +1128,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1207,8 +1144,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1223,15 +1160,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4755422</v>
+        <v>4120515</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1239,27 +1176,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1279,16 +1216,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1302,315 +1239,315 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>939249</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>939249</v>
+        <v>1239524</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1239524</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1239524</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1239524</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>37200</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>37200</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>37200</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F29" s="18">
-        <v>43333</v>
+        <v>80000</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1621,743 +1558,743 @@
         <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>32480</v>
+        <v>80000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F31" s="18">
-        <v>43654</v>
+        <v>80000</v>
       </c>
       <c r="G31" s="18">
-        <v>1423500</v>
+        <v>2000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F36" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>80000</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>2000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>32480</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F42" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F43" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>46800</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>43333</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>5200</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F60" s="18">
-        <v>60992</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>1524797</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F61" s="18">
-        <v>2033</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>1524797</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2369,53 +2306,53 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>23633</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1493552</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2426,10 +2363,10 @@
         <v>63</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F65" s="18">
-        <v>5200</v>
+        <v>52000</v>
       </c>
       <c r="G65" s="18">
         <v>1300000</v>
@@ -2438,122 +2375,122 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="E67" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F67" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F68" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="18">
-        <v>35112</v>
+        <v>54539</v>
       </c>
       <c r="G69" s="18">
-        <v>877803</v>
+        <v>1493552</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G70" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2564,79 +2501,79 @@
         <v>73</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F72" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F73" s="18">
-        <v>37200</v>
+        <v>54539</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>1493552</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F74" s="18">
-        <v>37200</v>
+        <v>52000</v>
       </c>
       <c r="G74" s="18">
         <v>1300000</v>
@@ -2645,21 +2582,21 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="E75" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F75" s="18">
-        <v>37200</v>
+        <v>52000</v>
       </c>
       <c r="G75" s="18">
         <v>1300000</v>
@@ -2668,862 +2605,448 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F76" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G76" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F77" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G77" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F78" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G78" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F79" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F80" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G80" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G81" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G82" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G83" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="F84" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G84" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="F85" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G85" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D86" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="F86" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G86" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="F87" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G88" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F89" s="18">
-        <v>80000</v>
+        <v>43654</v>
       </c>
       <c r="G89" s="18">
-        <v>2000000</v>
+        <v>1423500</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F90" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G90" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="18">
+    <row r="93" spans="2:10">
+      <c r="B93" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="24">
         <v>52000</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G93" s="24">
         <v>1300000</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F100" s="18">
-        <v>46800</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="18">
-        <v>54539</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1363476</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="18">
-        <v>54539</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1363476</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="18">
-        <v>23633</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1363476</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G111" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="26"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="32"/>
-      <c r="H116" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="32"/>
-      <c r="H117" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="H98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="H99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H98:J98"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011158618.xlsx
+++ b/Data/EC/NIT-9011158618.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC23040B-01CF-4207-B710-03688BB3442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29239898-93D5-4D92-B7F0-6D951E5B8378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DA59D246-C4F1-4C6A-8606-EEC8E9001319}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3CA19C9-5DEA-451C-9470-D313828962A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="99">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -340,7 +343,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,9 +398,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -410,7 +411,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -604,29 +607,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,19 +648,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9E45AA-89E7-28F2-FC93-41FD0EC593DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA411FE-2901-6A62-422C-21A1D86FDB8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,80 +1070,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96833C8B-1618-445F-8B7F-CD509DDEE3E7}">
-  <dimension ref="B2:J99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E24206-E58D-4B0F-9D31-99CA740D4CA2}">
+  <dimension ref="B2:J102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1144,13 +1153,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011158618</v>
       </c>
@@ -1160,15 +1169,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4120515</v>
+        <v>4281455</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1176,27 +1185,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1216,16 +1225,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,20 +1244,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>33125</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1258,20 +1267,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>35112</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1239524</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1281,20 +1290,20 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>35112</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1239524</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,20 +1313,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>35112</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1239524</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1327,20 +1336,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>35112</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1239524</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1350,20 +1359,20 @@
       <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1373,20 +1382,20 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1396,20 +1405,20 @@
       <c r="D23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>37200</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1423500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1419,20 +1428,20 @@
       <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>37200</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1423500</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1442,20 +1451,20 @@
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>37200</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1465,20 +1474,20 @@
       <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>80000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>2000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1488,20 +1497,20 @@
       <c r="D27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>80000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>2000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1511,20 +1520,20 @@
       <c r="D28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>80000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>2000000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1534,20 +1543,20 @@
       <c r="D29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>80000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>2000000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1557,20 +1566,20 @@
       <c r="D30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>80000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>2000000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1580,20 +1589,20 @@
       <c r="D31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>80000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>2000000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1603,20 +1612,20 @@
       <c r="D32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>80000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>2000000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1626,20 +1635,20 @@
       <c r="D33" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>80000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>2000000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1649,20 +1658,20 @@
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>80000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>2000000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1672,20 +1681,20 @@
       <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>80000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>2000000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1695,20 +1704,20 @@
       <c r="D36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>80000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>2000000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1718,20 +1727,20 @@
       <c r="D37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>80000</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>2000000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1741,20 +1750,20 @@
       <c r="D38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>80000</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>2000000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1764,20 +1773,20 @@
       <c r="D39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>80000</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>2000000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1787,20 +1796,20 @@
       <c r="D40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>80000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>2000000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1810,20 +1819,20 @@
       <c r="D41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>32480</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1160000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1833,20 +1842,20 @@
       <c r="D42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>46400</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>1423500</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1856,20 +1865,20 @@
       <c r="D43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>46400</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1423500</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1879,20 +1888,20 @@
       <c r="D44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>46400</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>1423500</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1902,20 +1911,20 @@
       <c r="D45" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>46400</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1423500</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1925,20 +1934,20 @@
       <c r="D46" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>46400</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>1423500</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1948,20 +1957,20 @@
       <c r="D47" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>46400</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1423500</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1971,20 +1980,20 @@
       <c r="D48" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>46400</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>1423500</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1994,20 +2003,20 @@
       <c r="D49" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>46400</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1423500</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2017,20 +2026,20 @@
       <c r="D50" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>46400</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>1423500</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2040,20 +2049,20 @@
       <c r="D51" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>46400</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>1423500</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2063,20 +2072,20 @@
       <c r="D52" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>46400</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>1423500</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2086,20 +2095,20 @@
       <c r="D53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>46800</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1423500</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2109,20 +2118,20 @@
       <c r="D54" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>46400</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>1423500</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2132,20 +2141,20 @@
       <c r="D55" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>52000</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>1423500</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2155,20 +2164,20 @@
       <c r="D56" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>43333</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>1300000</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2178,20 +2187,20 @@
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>46400</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1423500</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2201,20 +2210,20 @@
       <c r="D58" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>5200</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>1300000</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2224,20 +2233,20 @@
       <c r="D59" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>52000</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>1423500</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2247,20 +2256,20 @@
       <c r="D60" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>52000</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>1300000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2270,20 +2279,20 @@
       <c r="D61" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>46400</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>1423500</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2293,20 +2302,20 @@
       <c r="D62" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>52000</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>1300000</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2316,20 +2325,20 @@
       <c r="D63" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>52000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1423500</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2339,20 +2348,20 @@
       <c r="D64" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>23633</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>1493552</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2362,20 +2371,20 @@
       <c r="D65" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>52000</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>1300000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2385,20 +2394,20 @@
       <c r="D66" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>46400</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>1423500</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2408,20 +2417,20 @@
       <c r="D67" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>52000</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1300000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2431,20 +2440,20 @@
       <c r="D68" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>52000</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>1423500</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2454,20 +2463,20 @@
       <c r="D69" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>54539</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1493552</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2477,20 +2486,20 @@
       <c r="D70" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>52000</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="19">
         <v>1300000</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2500,20 +2509,20 @@
       <c r="D71" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>52000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>1423500</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2523,20 +2532,20 @@
       <c r="D72" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>52000</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>1300000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2546,20 +2555,20 @@
       <c r="D73" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>54539</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1493552</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2569,20 +2578,20 @@
       <c r="D74" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>52000</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="19">
         <v>1300000</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2592,20 +2601,20 @@
       <c r="D75" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>52000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>1300000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2615,20 +2624,20 @@
       <c r="D76" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>52000</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="19">
         <v>1300000</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2638,20 +2647,20 @@
       <c r="D77" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>52000</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1300000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2661,20 +2670,20 @@
       <c r="D78" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>52000</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>1300000</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2684,20 +2693,20 @@
       <c r="D79" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>52000</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>1300000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2707,20 +2716,20 @@
       <c r="D80" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>52000</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>1300000</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2730,20 +2739,20 @@
       <c r="D81" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>52000</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>1300000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2753,20 +2762,20 @@
       <c r="D82" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>52000</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>1300000</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2776,20 +2785,20 @@
       <c r="D83" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>52000</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>1300000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2799,20 +2808,20 @@
       <c r="D84" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>52000</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>1300000</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2822,20 +2831,20 @@
       <c r="D85" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>52000</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="19">
         <v>1300000</v>
       </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2845,20 +2854,20 @@
       <c r="D86" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>52000</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>1300000</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2868,20 +2877,20 @@
       <c r="D87" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>52000</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>1300000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2891,20 +2900,20 @@
       <c r="D88" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>52000</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="19">
         <v>1300000</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2914,20 +2923,20 @@
       <c r="D89" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>43654</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="19">
         <v>1423500</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2937,20 +2946,20 @@
       <c r="D90" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>52000</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>1300000</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -2960,20 +2969,20 @@
       <c r="D91" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>52000</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>1300000</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -2983,70 +2992,139 @@
       <c r="D92" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>56940</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="19">
         <v>1423500</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="22" t="s">
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F93" s="19">
         <v>52000</v>
       </c>
-      <c r="G93" s="24">
+      <c r="G93" s="19">
         <v>1300000</v>
       </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="32" t="s">
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" s="26">
+        <v>52000</v>
+      </c>
+      <c r="G96" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="28"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="H101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="H98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="H99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="C102" s="34"/>
+      <c r="H102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H101:J101"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
